--- a/schema database.xlsx
+++ b/schema database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruav\Desktop\Deepen\amcred\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruav\Desktop\Deepen\AMCRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4798FF9E-4558-41CA-8767-837C32DEBC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3241B86-A705-479B-A1D6-BFEE5484F31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{542CD072-50F9-4153-BC31-C7D1FE194FF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>Tipo</t>
   </si>
@@ -44,60 +44,21 @@
     <t>Observações</t>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>int16</t>
-  </si>
-  <si>
     <t>Primary key</t>
   </si>
   <si>
     <t>Nome Coluna</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>str20</t>
-  </si>
-  <si>
     <t>Único</t>
   </si>
   <si>
-    <t>str102</t>
-  </si>
-  <si>
     <t>Criptografado</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>int8</t>
-  </si>
-  <si>
-    <t>organization_id</t>
-  </si>
-  <si>
     <t>Foreign key</t>
   </si>
   <si>
-    <t>organizations</t>
-  </si>
-  <si>
-    <t>organizarion_name</t>
-  </si>
-  <si>
-    <t>calls</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -110,15 +71,9 @@
     <t>rendafamiliarmensal</t>
   </si>
   <si>
-    <t>float32</t>
-  </si>
-  <si>
     <t>totaldasreceitas</t>
   </si>
   <si>
-    <t>float33</t>
-  </si>
-  <si>
     <t>situacaodoimovelderesidencia</t>
   </si>
   <si>
@@ -138,6 +93,57 @@
   </si>
   <si>
     <t>conceitospc</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar255</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>cnpj_empresa</t>
+  </si>
+  <si>
+    <t>perfil</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>cpf_usuario</t>
+  </si>
+  <si>
+    <t>cpf_cliente</t>
+  </si>
+  <si>
+    <t>nome_empresa</t>
+  </si>
+  <si>
+    <t>consultas</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>empresas</t>
+  </si>
+  <si>
+    <t>solicitacoes</t>
   </si>
 </sst>
 </file>
@@ -187,13 +193,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,16 +513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4418CCF0-11E8-4429-947B-9403DC5DAA9A}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.109375" bestFit="1" customWidth="1"/>
@@ -525,248 +531,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
